--- a/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_jinja_.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_jinja_.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608000DF-B641-4AAD-B259-4A2B93352F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FHq3J7pXtNP+L03aV34DE7AGPu5O8HTYUv+nLoGyfNH4h5EUPciZq0znncPzL78bA0tOWYrbYocftRwgYTjJIA==" workbookSaltValue="7wIosF6eSO1SChUSlhjetA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B4305-4598-4734-9FA7-291BC19C90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="cTz01+JRKqYtBJdeEQyIyFDIDECBV9kDzojeGshV+rvYtXr5YVqs4X/KscmQ5rUd7nU2XOzApYxxq3BgZmO3Og==" workbookSaltValue="FZzXchLbHGyhUCkjw1gBuw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5447" yWindow="1447" windowWidth="19200" windowHeight="11760" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="30720" yWindow="1935" windowWidth="21600" windowHeight="11100" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -584,9 +584,6 @@
     <t>Need input from ISD on what the list should include</t>
   </si>
   <si>
-    <t>energy_v00_01</t>
-  </si>
-  <si>
     <t>5.  If it is unclear how to respond to a request, please elaborate in the 'Additional Comments' Section.</t>
   </si>
   <si>
@@ -1037,6 +1034,9 @@
   </si>
   <si>
     <t>$D$43</t>
+  </si>
+  <si>
+    <t>energy_v01_00</t>
   </si>
   <si>
     <t>{{ additional_notes }}</t>
@@ -2555,19 +2555,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="28.5859375" customWidth="1"/>
-    <col min="8" max="8" width="22.17578125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>157</v>
       </c>
@@ -2621,14 +2621,14 @@
       <c r="E3" s="24"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="2:33" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2698,7 +2698,7 @@
       <c r="AF6" s="42"/>
       <c r="AG6" s="42"/>
     </row>
-    <row r="7" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>135</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="40"/>
     </row>
-    <row r="9" spans="2:33" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>137</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="2:33" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>136</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>138</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>139</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="55" t="s">
         <v>140</v>
       </c>
@@ -2815,9 +2815,9 @@
       <c r="AF13" s="29"/>
       <c r="AG13" s="29"/>
     </row>
-    <row r="14" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -2851,16 +2851,16 @@
       <c r="AF14" s="29"/>
       <c r="AG14" s="29"/>
     </row>
-    <row r="15" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
         <v>141</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="E16" s="31"/>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" s="32" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="32" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -2939,7 +2939,7 @@
       <c r="AF18" s="44"/>
       <c r="AG18" s="44"/>
     </row>
-    <row r="19" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="50" t="s">
         <v>128</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
     </row>
-    <row r="21" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
         <v>129</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="50" t="s">
         <v>130</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
         <v>131</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
-    <row r="24" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="50" t="s">
         <v>132</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
     </row>
-    <row r="25" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
         <v>133</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
     </row>
-    <row r="26" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -3111,7 +3111,7 @@
       <c r="AF27" s="42"/>
       <c r="AG27" s="42"/>
     </row>
-    <row r="28" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
         <v>134</v>
       </c>
@@ -3158,9 +3158,9 @@
       <c r="E29" s="47"/>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="46" t="s">
@@ -3169,9 +3169,9 @@
       <c r="E30" s="47"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="31" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="46" t="s">
@@ -3180,9 +3180,9 @@
       <c r="E31" s="47"/>
       <c r="F31" s="40"/>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="46" t="s">
@@ -3191,7 +3191,7 @@
       <c r="E32" s="47"/>
       <c r="F32" s="40"/>
     </row>
-    <row r="33" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
@@ -3261,7 +3261,7 @@
       <c r="AF34" s="42"/>
       <c r="AG34" s="42"/>
     </row>
-    <row r="35" spans="2:33" s="23" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:33" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -3297,9 +3297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="37" t="s">
@@ -3308,9 +3308,9 @@
       <c r="E36" s="34"/>
       <c r="F36" s="40"/>
     </row>
-    <row r="37" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="49" t="s">
@@ -3319,9 +3319,9 @@
       <c r="E37" s="34"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="37" t="s">
@@ -3330,9 +3330,9 @@
       <c r="E38" s="34"/>
       <c r="F38" s="40"/>
     </row>
-    <row r="39" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="37" t="s">
@@ -3341,9 +3341,9 @@
       <c r="E39" s="34"/>
       <c r="F39" s="40"/>
     </row>
-    <row r="40" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="49" t="s">
@@ -3352,9 +3352,9 @@
       <c r="E40" s="34"/>
       <c r="F40" s="40"/>
     </row>
-    <row r="41" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="37" t="s">
@@ -3363,9 +3363,9 @@
       <c r="E41" s="34"/>
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="48" t="s">
@@ -3374,9 +3374,9 @@
       <c r="E42" s="34"/>
       <c r="F42" s="40"/>
     </row>
-    <row r="43" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B43" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="60" t="s">
@@ -3385,9 +3385,9 @@
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
     </row>
-    <row r="44" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B44" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="60" t="s">
@@ -3396,7 +3396,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:33" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -3466,7 +3466,7 @@
       <c r="AF46" s="42"/>
       <c r="AG46" s="42"/>
     </row>
-    <row r="47" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -3502,9 +3502,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B48" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="60" t="s">
@@ -3513,9 +3513,9 @@
       <c r="E48" s="36"/>
       <c r="F48" s="40"/>
     </row>
-    <row r="49" spans="2:33" s="15" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B49" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="60" t="s">
@@ -3524,9 +3524,9 @@
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
     </row>
-    <row r="50" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="49" t="s">
@@ -3535,9 +3535,9 @@
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
     </row>
-    <row r="51" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="48" t="s">
@@ -3546,9 +3546,9 @@
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
     </row>
-    <row r="52" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="60" t="s">
@@ -3557,7 +3557,7 @@
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -3593,12 +3593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="40"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="60" t="s">
@@ -3607,7 +3607,7 @@
       <c r="F56" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nTiR9rmGedP4lenxfuymtFrCgZEvfF6U4glp6YcB7UY6RA1r9LsC9N3koWXtP8fTvr0mWVYbgIiD8+SZ4NtTrw==" saltValue="x8V0OlOibdvV5N/pCk9DJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="31gn7h2MSCFYI5x8UR9BLJ2bQRm8dGX9cVh2YreKUWhaq8vKCVTIMfDqrzB3J2GlXOYUTaS9UUSAeVoX54U14Q==" saltValue="KQrAWvIFSCtuUGMhPie9PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3645,25 +3645,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3677,7 +3677,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3685,15 +3685,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3772,7 +3772,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="D25" s="16"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="D26" s="16"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="D27" s="16"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="D28" s="16"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="D29" s="16"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="D31" s="16"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="D32" s="16"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="D33" s="16"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="D34" s="16"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="D35" s="16"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="D36" s="16"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="D37" s="16"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="D39" s="16"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="D40" s="16"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="D41" s="16"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="D42" s="16"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>23</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>24</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>25</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>26</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>27</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>28</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>29</v>
       </c>
@@ -4083,52 +4083,52 @@
       <c r="D49" s="16"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iiyOJ9XGW5rLQQ6gPm5N6FxWxCjbJKbUkfgNOF26ZTWyV/hrxsUeResryFhc8qf3VkIMKlLZrQD5oPIeMuVMzw==" saltValue="0jKlqhIr2h3r5M0/MKOivA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wfsCWVHGYlzdp+sx2Yg98bD+L3ewprQEDuhYcyhxylwZ5D2cYI6JSD5d//Ez+4EHt8N66OFW/+ISQBm2dwKooA==" saltValue="HY8TDfP9PA+T1bUlP6oTFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -4149,14 +4149,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -4170,12 +4170,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4189,7 +4189,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4227,7 +4227,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -4241,7 +4241,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4273,7 +4273,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -4338,7 +4338,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>110</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -4369,7 +4369,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>115</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>111</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>112</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>113</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>114</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -4502,7 +4502,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>118</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -4533,7 +4533,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>116</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>117</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>112</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>113</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>114</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -4683,7 +4683,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>119</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -4714,7 +4714,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>116</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>117</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>111</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>112</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -4830,7 +4830,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4862,7 +4862,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>37</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>38</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>39</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>42</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>43</v>
       </c>
@@ -4998,7 +4998,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>44</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>45</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>46</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>47</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>48</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>49</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -5114,7 +5114,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -5146,7 +5146,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>8</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
@@ -5180,70 +5180,70 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,32 +5260,32 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -5300,7 +5300,7 @@
       <c r="Q89" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3qCd42j9iqdRqTdgB8/o/QxZfYeB+zvafy1kZgGVntd2NB7RjXoZz3ypjinRiIrIJrTuUnwLjVXL61V2VkTnHA==" saltValue="HT8+HCbeJaYEgX2Wps9DOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TFaJXSENvo61jQs8gpXGBM/Q+Nle+54BgTcpCywd1wNi8Q8Zmq6pzodQWT9mxWq785pHcB4jCO1o/on4Mz1duw==" saltValue="OVs6J/0u2A160HjbJiJxiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -5320,21 +5320,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
@@ -5374,16 +5376,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gKkX2hqkZHIn5s50nfi9Bax2i3soPSmolNURgpjIxtEHbae/6jjqPN2jFVcNCa6GUOPHtxuXBkP8VjlNB5na4g==" saltValue="SbNGV+HGLVernU+feFl5+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kHM/2iRoT0K7FCbPmM7tQMt4mGacUyR80x0jNPx8fucnlk0KpIByQH3u7bELtTHq6WVDdTrX+/9sldwvBVEZow==" saltValue="VGiwkd7tDzX4fYh16Ov6cA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5395,18 +5397,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5438,12 +5440,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>82</v>
       </c>
@@ -5476,7 +5478,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8tcOnClAKqHxUJmTrAwQvWgNF67K5CptfTL5D6z97fvemWN7xo+EUVBzFWZ2X9XJytKuWq2EbVDu4tD65QsYQ==" saltValue="X2U5TbPx+dkY1DrcblpNCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P7Dd4HIu1qstAoum2traQ7I86mZQEMYHN0DbWq40pp6d8zQvHTj8FM/EYAUP5KHnRW9ZCc4LCnmCRbrPw4j1nA==" saltValue="VMmY+wIZklpBUh2lbXkznA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5491,17 +5493,17 @@
       <selection activeCell="A11" sqref="A11:R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5859375" customWidth="1"/>
-    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1171875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
@@ -5509,7 +5511,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="F3" s="9"/>
       <c r="G3" s="17"/>
@@ -5525,7 +5527,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5536,32 +5538,32 @@
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -5592,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -5609,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>74</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>74</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -5714,12 +5716,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -5731,12 +5733,12 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
@@ -5748,12 +5750,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
@@ -5765,12 +5767,12 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
         <v>100</v>
@@ -5782,7 +5784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -5799,12 +5801,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
         <v>102</v>
@@ -5816,12 +5818,12 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
         <v>103</v>
@@ -5833,7 +5835,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>74</v>
       </c>
@@ -5867,12 +5869,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
         <v>123</v>
@@ -5884,12 +5886,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
         <v>105</v>
@@ -5901,7 +5903,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>74</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -5986,12 +5988,12 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
         <v>108</v>
@@ -6000,11 +6002,11 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YjPw/+i4DxIX66v8hQBzcPgTuCPD3WEZg8A62gqawVn7strXfj3sAijWCWJrXMMQjEfCTMxoyFRFgxdnh9xtVg==" saltValue="0PNhhdyubxYfTLJG7Knx6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dy7lCOyxrACCMFYFMOlnIUyznJgq3yRgRVjDuHDgO1LgQcUDKxuJ5JIc6rzEHttTJuMgeXYOGXJFjJ+NDZUQ8Q==" saltValue="jTqyI+iVgAAPBXURaelArw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R35">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -6014,26 +6016,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -6268,26 +6250,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6304,4 +6287,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_jinja_.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686448EB-3174-43D3-9C0D-125C94D54B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4Zh4mO2hYhXEBohcHyVO08Hlm+e8tG+cOhw6wdbHtxdjM6ODx7YF6K7msS3VAHSQbxPAIyl5gchaFHxzOW/+xA==" workbookSaltValue="v44hdFPP69Yjt0p9E6O9pQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D9C56-DC65-4C9A-BDDB-3057E8E8A74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TEnSiyQRyHMLKh0iio57k8WHgCSKlta9Y2oQS7Ap8AKYcD8941iom+0NU7naEtnZrWUNYZK8U2Da4f/dkytFfA==" workbookSaltValue="9GM30+WE6ZO6G9hkff5wPg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4027" yWindow="1453" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="jinja_repair_timestamp">'Feedback Form'!$D$50</definedName>
     <definedName name="jinja_venting_description_2">'Feedback Form'!$D$43</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2598,7 +2598,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3652,7 +3654,7 @@
       <c r="F56" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LIanA4X5OmzElekoSqbpDyISys+RHIXlc9ey+5IO+FPRvSege3ajw1euBN6nMTZvyZwlDOC+V4PizZIeX5Twbg==" saltValue="MD4HBT78Qff1GMyt64nQ1A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JqMCS/D9pf/nxSDkjI0g100D+/PZKq/Ix4zPQvf2TIFAP9L3AmObekEhJu5ua4zKP5UyLuO8Hpupxqde1yVSgQ==" saltValue="R0ruMyG0oek+DxYqV4k50A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3831,7 +3833,7 @@
       <c r="D26" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M1K6lnM8GqQUqvgT4McNMbrfhavOiigqGlzP4bW5CwBf8cMd/Fzd7C9jngslMQkz8oSDsOxm5n1i2VoS1+x/BQ==" saltValue="cS8U1xSL8mN9vfVNGIP8rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="voYixNhxFWjm9WJ7M9F47ITK0jfM1q0bvLGLOah14yvYhuVIeuP2PPWYXWL3IiyiYHGWuQGWVAjmYR6ffKW0rA==" saltValue="UjbiaUO7hgk8FunmfDbgjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4330,7 +4332,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jhOaRvqc29kDqNABxv01CNHj79ZQRpjXiqU3b4360KAvUTvGtiD5s6p79G7WFtZQo3YgYqZnS3KE852JLhwWNg==" saltValue="xV8MeD6fpyUR8OkTfWMyIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eNMqldRoLW8QkF4o7Y+WoEIJPmMrNozquaLROb2QwYcArk+UFHIUCy9Osmjskp9MVyC8P3Org8FQ1LGQaOgMJg==" saltValue="aBpAuGyPIoawkOA8qp4Ryg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -5502,7 +5504,7 @@
       <c r="Q89" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xih585rf/ZB1u+qtsjfVz3gQLa3Ys/dLaT8N7U3Zjp5Xx/nWcsiq0euuOCiVzKICngM2kFw9KK5MR7+c4jy9Tg==" saltValue="A0vGlC4Rzy71ygw9yKOuJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SwYdY1/RKTYHmx2zLQFkpA8qvcVmhg7N1ItU2pHJPZ4i0wKZqnH1r/wipZhOzpFmiFo3NDll9tz7CeYWZF7Pag==" saltValue="sYrpIDsiV2bAm0qvGBj8vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -5587,7 +5589,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jmGDGblVgqSGebM902ztDLLPu//rZ1BIhd6wZmQFlMGjk+hj4IuYhdoawiwu3CW9s4gA3ncaw1NqIEpbnt9QNQ==" saltValue="wbeOhrrPkTQ+HKAebFngFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XEzUPOf8Jd2tAIyoHbONlN4i6pYA8kEX60fMMFMcn6o4SSJl5e0aKb1skm8YFvD1Ix/JE4tN/5dAKigglPmDxw==" saltValue="BcD1PYLfqNvgWjuEByuU+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5682,7 +5684,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gQPBRV1a69+zlsvzrcKuv/HhPhp7JCsHof36nOPYlN3lq7JoBBZZxfGuUpbYPtkQAljcBpkzx6S5+Nhyix7YVQ==" saltValue="FcnpfNq3XhMc/QeWsGI8Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yWHWuKh3R+5rCFz2JDwH09wyuR1ODVK8JeG9Vtp+TdsqHg+4rVvplJvurR6bgzPTBMI8v62Yk9pOULXXOj4Xcg==" saltValue="x/TattjFjtiL97dv/2/aww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6210,7 +6212,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dWvNNbA4gyUI8/D28lg5C9XkUVrqApFJOgl7/uYNAISUCoi+e2GTK6hpwp8Fj/AWZpRxw9nnWJzb/UWO+vxX1g==" saltValue="DHQgy0C5hlCWM4PpOY/aKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dl6Ih0Mj0COKg/3BPrLOUTUmkp2wcFfpX+OYes1CNgHMY7RF9YpB9E8j/Q2FaIQUfjp5EeHtvxYvRSsaV299sA==" saltValue="bTc7xGt1o1+PdybYFBZKJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R35">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -6220,15 +6222,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
@@ -6237,6 +6230,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6475,20 +6477,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
     <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
